--- a/biology/Médecine/Robert_de_Vernejoul/Robert_de_Vernejoul.xlsx
+++ b/biology/Médecine/Robert_de_Vernejoul/Robert_de_Vernejoul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert de Vernejoul, né le 19 mars 1890 à Montcaret (Dordogne) et mort le 14 octobre 1992 à Marseille (Bouches-du-Rhône), est un chirurgien français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert de Vernejoul, est né le 19 mars 1890 à Montcaret (Dordogne). 
 Durant ses études[Quand ?], il quitte Clermont-Ferrand pour suivre des études de médecine à Marseille. 
@@ -550,12 +564,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Grand-croix de la Légion d'honneur[1],[2] en 1973[3].
- Croix de guerre 1914-1918[2]
- Croix de guerre 1939-1945[2]
- Médaille de la Résistance française (décret du 31 mars 1947) pour ses services dans l'Armée secrète[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grand-croix de la Légion d'honneur, en 1973.
+ Croix de guerre 1914-1918
+ Croix de guerre 1939-1945
+ Médaille de la Résistance française (décret du 31 mars 1947) pour ses services dans l'Armée secrète
 Grande médaille d'or de la Société d'encouragement au progrès (1974)</t>
         </is>
       </c>
@@ -584,7 +600,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Robert de Vernejoul et Pierre de Vernejoul, Des tranchées aux pavés : carnets de route du médecin-auxiliaire Robert de Vernejoul, Anglet, Atlantica, 2002, 244 p. (ISBN 2-84394-471-6, EAN 978-2-84394-471-0, lire en ligne).</t>
         </is>
